--- a/docs/MMAvig.xlsx
+++ b/docs/MMAvig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8CD6B-4E57-4B22-91C9-CEDD9698F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBB23B-4F6B-46DF-BB4A-511DA03B03E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="975" windowWidth="23595" windowHeight="15120" xr2:uid="{000C2430-3035-4105-A735-D103BC6F123E}"/>
+    <workbookView xWindow="29685" yWindow="1620" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{000C2430-3035-4105-A735-D103BC6F123E}"/>
   </bookViews>
   <sheets>
     <sheet name="ml" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>Caesars</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Roman Kopylov</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Darrius Flowers</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC762161-661A-4D22-85BB-E95E77178E52}">
   <dimension ref="A2:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2025" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="2025" topLeftCell="A46"/>
+      <selection activeCell="S3" sqref="S3:Z5"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,88 +669,88 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <v>-115</v>
       </c>
       <c r="E3">
-        <v>350</v>
+        <v>-150</v>
       </c>
       <c r="F3">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G3">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="H3">
-        <v>350</v>
+        <v>-320</v>
       </c>
       <c r="I3">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="J3" s="1">
         <f>IF(G3&lt;0,-(100-G3)/G3,G3/100+1)</f>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="1">
         <f>IF(C3&lt;0,-(100-C3)/C3,C3/100+1)</f>
-        <v>4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:R3" si="0">IF(D3&lt;0,-(100-D3)/D3,D3/100+1)</f>
-        <v>4.5</v>
+        <v>1.8695652173913044</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>1.3125</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="S3" s="2">
         <f>IF(AND(C3*C4&lt;0,$A3/2=INT($A3/2)),1/L3+1/L4)</f>
-        <v>1.0507246376811594</v>
+        <v>1.0347826086956522</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" ref="T3:Z3" si="1">IF(AND(D3*D4&lt;0,$A3/2=INT($A3/2)),1/M3+1/M4)</f>
-        <v>1.0404040404040402</v>
+        <f>IF(AND(D3*D4&gt;0,$A3/2=INT($A3/2)),1/M3+1/M4)</f>
+        <v>1.0470788428814521</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0498084291187739</v>
+        <f t="shared" ref="T3:Z3" si="1">IF(AND(E3*E4&lt;0,$A3/2=INT($A3/2)),1/N3+1/N4)</f>
+        <v>1.0347826086956522</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="1"/>
-        <v>1.0609318996415771</v>
+        <v>1.0380952380952382</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="1"/>
-        <v>1.0498084291187739</v>
+        <v>1.036281179138322</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="1"/>
-        <v>1.0404040404040402</v>
+        <v>1.0358773646444879</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="1"/>
-        <v>1.0555555555555556</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="Z3" s="2" t="b">
         <f t="shared" si="1"/>
@@ -759,56 +765,56 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-500</v>
+        <v>-150</v>
       </c>
       <c r="D4">
-        <v>-450</v>
+        <v>-105</v>
       </c>
       <c r="E4">
-        <v>-480</v>
+        <v>130</v>
       </c>
       <c r="F4">
-        <v>-520</v>
+        <v>-400</v>
       </c>
       <c r="G4">
-        <v>-480</v>
+        <v>-145</v>
       </c>
       <c r="H4">
-        <v>-450</v>
+        <v>265</v>
       </c>
       <c r="I4">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L58" si="2">IF(C4&lt;0,-(100-C4)/C4,C4/100+1)</f>
-        <v>1.2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M58" si="3">IF(D4&lt;0,-(100-D4)/D4,D4/100+1)</f>
-        <v>1.2222222222222223</v>
+        <v>1.9523809523809523</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N58" si="4">IF(E4&lt;0,-(100-E4)/E4,E4/100+1)</f>
-        <v>1.2083333333333333</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O58" si="5">IF(F4&lt;0,-(100-F4)/F4,F4/100+1)</f>
-        <v>1.1923076923076923</v>
+        <v>1.25</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4:P58" si="6">IF(G4&lt;0,-(100-G4)/G4,G4/100+1)</f>
-        <v>1.2083333333333333</v>
+        <v>1.6896551724137931</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q58" si="7">IF(H4&lt;0,-(100-H4)/H4,H4/100+1)</f>
-        <v>1.2222222222222223</v>
+        <v>3.65</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R58" si="8">IF(I4&lt;0,-(100-I4)/I4,I4/100+1)</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="S4" s="2" t="b">
         <f t="shared" ref="S4:S57" si="9">IF(AND(C4*C5&lt;0,$A4/2=INT($A4/2)),1/L4+1/L5)</f>
@@ -851,13 +857,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>-240</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>-265</v>
       </c>
       <c r="E5">
-        <v>163</v>
+        <v>-160</v>
       </c>
       <c r="F5">
         <v>162</v>
@@ -876,15 +882,15 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>2.75</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>2.7</v>
+        <v>1.3773584905660377</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>2.63</v>
+        <v>1.625</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
@@ -904,15 +910,15 @@
       </c>
       <c r="S5" s="2">
         <f t="shared" si="9"/>
-        <v>1.0559440559440558</v>
+        <v>1.044865403788634</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="10"/>
-        <v>1.0425015179113539</v>
+        <v>1.0337197049525817</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="11"/>
-        <v>1.0523592844231129</v>
+        <v>1.0501672240802677</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="12"/>
@@ -943,13 +949,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-225</v>
+        <v>195</v>
       </c>
       <c r="D6">
-        <v>-205</v>
+        <v>225</v>
       </c>
       <c r="E6">
-        <v>-205</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>-210</v>
@@ -968,15 +974,15 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>1.4444444444444444</v>
+        <v>2.95</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>1.4878048780487805</v>
+        <v>3.25</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>1.4878048780487805</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
@@ -5614,9 +5620,9 @@
         <f t="shared" si="8"/>
         <v>2.63</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="2" t="e">
         <f t="shared" si="9"/>
-        <v>1.0431848852901484</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="10"/>
@@ -5654,8 +5660,8 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="C58">
-        <v>-225</v>
+      <c r="C58" t="s">
+        <v>63</v>
       </c>
       <c r="D58">
         <v>-230</v>
@@ -5678,9 +5684,9 @@
       <c r="K58" t="s">
         <v>62</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.4444444444444444</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="3"/>
@@ -5724,33 +5730,33 @@
         <f>2^A60</f>
         <v>4294967296</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="e">
         <f>AVERAGE(S3:S57)</f>
-        <v>1.0467738457754068</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T60" s="3">
         <f t="shared" ref="T60:Z60" si="17">AVERAGE(T3:T57)</f>
-        <v>1.0414217003966237</v>
+        <v>1.0413259271929256</v>
       </c>
       <c r="U60" s="3">
         <f t="shared" si="17"/>
-        <v>1.0598268009922431</v>
+        <v>1.0591093892936614</v>
       </c>
       <c r="V60" s="3">
         <f t="shared" si="17"/>
-        <v>1.0601358142191684</v>
+        <v>1.0591842866547376</v>
       </c>
       <c r="W60" s="3">
         <f t="shared" si="17"/>
-        <v>1.0598268009922431</v>
+        <v>1.0592631655763911</v>
       </c>
       <c r="X60" s="3">
         <f t="shared" si="17"/>
-        <v>1.0473483459105544</v>
+        <v>1.0471742429967252</v>
       </c>
       <c r="Y60" s="3">
         <f t="shared" si="17"/>
-        <v>1.0631869605538122</v>
+        <v>1.0624153556155405</v>
       </c>
       <c r="Z60" s="3" t="e">
         <f t="shared" si="17"/>
@@ -5976,12 +5982,865 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310E6A54-353E-41DE-93C8-7F508F4959E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>-150</v>
+      </c>
+      <c r="D2">
+        <v>-160</v>
+      </c>
+      <c r="E2">
+        <v>-150</v>
+      </c>
+      <c r="F2">
+        <v>-155</v>
+      </c>
+      <c r="G2">
+        <v>-152</v>
+      </c>
+      <c r="H2">
+        <v>-155</v>
+      </c>
+      <c r="I2">
+        <v>-150</v>
+      </c>
+      <c r="J2">
+        <v>-150</v>
+      </c>
+      <c r="L2" s="1">
+        <f>IF(C2&lt;0,-(100-C2)/C2,C2/100+1)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:T3" si="0">IF(D2&lt;0,-(100-D2)/D2,D2/100+1)</f>
+        <v>1.625</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6451612903225807</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6578947368421053</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6451612903225807</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T2" s="2">
+        <f>IF(AND(D2*D3&lt;0,$A2/2=INT($A2/2)),1/M2+1/M3)</f>
+        <v>1.0501672240802677</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
+        <f t="shared" ref="V2:AA4" si="1">IF(AND(F2*F3&lt;0,$A2/2=INT($A2/2)),1/O2+1/O3)</f>
+        <v>1.0522875816993462</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0417710944026732</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0522875816993462</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>AVERAGE(T2:Z2)</f>
+        <v>1.0492505634785887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3">
+        <v>125</v>
+      </c>
+      <c r="F3">
+        <v>125</v>
+      </c>
+      <c r="G3">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>125</v>
+      </c>
+      <c r="I3">
+        <v>125</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+      <c r="L3" s="1">
+        <f>IF(C3&lt;0,-(100-C3)/C3,C3/100+1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T3" s="2" t="b">
+        <f t="shared" ref="T3:T4" si="2">IF(AND(D3*D4&lt;0,$A3/2=INT($A3/2)),1/M3+1/M4)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="b">
+        <f t="shared" ref="U3:U4" si="3">IF(AND(E3*E4&gt;0,$A3/2=INT($A3/2)),1/N3+1/N4)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <f t="shared" ref="V3:V4" si="4">IF(AND(F3*F4&lt;0,$A3/2=INT($A3/2)),1/O3+1/O4)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="b">
+        <f t="shared" ref="W3:W4" si="5">IF(AND(G3*G4&lt;0,$A3/2=INT($A3/2)),1/P3+1/P4)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="b">
+        <f t="shared" ref="X3:X4" si="6">IF(AND(H3*H4&lt;0,$A3/2=INT($A3/2)),1/Q3+1/Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="b">
+        <f t="shared" ref="Y3:Y4" si="7">IF(AND(I3*I4&lt;0,$A3/2=INT($A3/2)),1/R3+1/R4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="b">
+        <f t="shared" ref="Z3:Z4" si="8">IF(AND(J3*J4&lt;0,$A3/2=INT($A3/2)),1/S3+1/S4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="b">
+        <f t="shared" ref="AA3:AA4" si="9">IF(AND(K3*K4&lt;0,$A3/2=INT($A3/2)),1/T3+1/T4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>-110</v>
+      </c>
+      <c r="D4">
+        <v>-110</v>
+      </c>
+      <c r="E4">
+        <v>-115</v>
+      </c>
+      <c r="F4">
+        <v>-118</v>
+      </c>
+      <c r="G4">
+        <v>-108</v>
+      </c>
+      <c r="H4">
+        <v>-118</v>
+      </c>
+      <c r="I4">
+        <v>-110</v>
+      </c>
+      <c r="J4">
+        <v>-110</v>
+      </c>
+      <c r="L4" s="1">
+        <f>IF(C4&lt;0,-(100-C4)/C4,C4/100+1)</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M5" si="10">IF(D4&lt;0,-(100-D4)/D4,D4/100+1)</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N5" si="11">IF(E4&lt;0,-(100-E4)/E4,E4/100+1)</f>
+        <v>1.8695652173913044</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <f>IF(AND(D4*D5&lt;0,$A4/2=INT($A4/2)),1/M4+1/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0470788428814521</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>-110</v>
+      </c>
+      <c r="D5">
+        <v>-110</v>
+      </c>
+      <c r="E5">
+        <v>-105</v>
+      </c>
+      <c r="F5">
+        <v>-106</v>
+      </c>
+      <c r="G5">
+        <v>-108</v>
+      </c>
+      <c r="H5">
+        <v>-106</v>
+      </c>
+      <c r="I5">
+        <v>-110</v>
+      </c>
+      <c r="J5">
+        <v>-110</v>
+      </c>
+      <c r="L5" s="1">
+        <f>IF(C5&lt;0,-(100-C5)/C5,C5/100+1)</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9523809523809523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>175</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>160</v>
+      </c>
+      <c r="G6">
+        <v>176</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>175</v>
+      </c>
+      <c r="J6">
+        <v>163</v>
+      </c>
+      <c r="M6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>-210</v>
+      </c>
+      <c r="D7">
+        <v>-225</v>
+      </c>
+      <c r="E7">
+        <v>-220</v>
+      </c>
+      <c r="F7">
+        <v>-200</v>
+      </c>
+      <c r="G7">
+        <v>-210</v>
+      </c>
+      <c r="H7">
+        <v>-200</v>
+      </c>
+      <c r="I7">
+        <v>-210</v>
+      </c>
+      <c r="J7">
+        <v>-200</v>
+      </c>
+      <c r="M7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>125</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>-150</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>-350</v>
+      </c>
+      <c r="D10">
+        <v>-375</v>
+      </c>
+      <c r="E10">
+        <v>-370</v>
+      </c>
+      <c r="F10">
+        <v>-360</v>
+      </c>
+      <c r="G10">
+        <v>-360</v>
+      </c>
+      <c r="H10">
+        <v>-360</v>
+      </c>
+      <c r="I10">
+        <v>-351</v>
+      </c>
+      <c r="J10">
+        <v>-350</v>
+      </c>
+      <c r="M10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>290</v>
+      </c>
+      <c r="D11">
+        <v>280</v>
+      </c>
+      <c r="E11">
+        <v>290</v>
+      </c>
+      <c r="F11">
+        <v>270</v>
+      </c>
+      <c r="G11">
+        <v>290</v>
+      </c>
+      <c r="H11">
+        <v>270</v>
+      </c>
+      <c r="I11">
+        <v>275</v>
+      </c>
+      <c r="J11">
+        <v>275</v>
+      </c>
+      <c r="M11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>-145</v>
+      </c>
+      <c r="D12">
+        <v>-150</v>
+      </c>
+      <c r="E12">
+        <v>-150</v>
+      </c>
+      <c r="F12">
+        <v>-157</v>
+      </c>
+      <c r="G12">
+        <v>-142</v>
+      </c>
+      <c r="H12">
+        <v>-157</v>
+      </c>
+      <c r="I12">
+        <v>-150</v>
+      </c>
+      <c r="J12">
+        <v>-150</v>
+      </c>
+      <c r="M12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>125</v>
+      </c>
+      <c r="E13">
+        <v>125</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="I13">
+        <v>125</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>-325</v>
+      </c>
+      <c r="D14">
+        <v>-350</v>
+      </c>
+      <c r="E14">
+        <v>-340</v>
+      </c>
+      <c r="F14">
+        <v>-360</v>
+      </c>
+      <c r="G14">
+        <v>-340</v>
+      </c>
+      <c r="H14">
+        <v>-360</v>
+      </c>
+      <c r="I14">
+        <v>-351</v>
+      </c>
+      <c r="J14">
+        <v>-333</v>
+      </c>
+      <c r="M14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>270</v>
+      </c>
+      <c r="D15">
+        <v>275</v>
+      </c>
+      <c r="E15">
+        <v>265</v>
+      </c>
+      <c r="F15">
+        <v>275</v>
+      </c>
+      <c r="G15">
+        <v>275</v>
+      </c>
+      <c r="H15">
+        <v>275</v>
+      </c>
+      <c r="I15">
+        <v>275</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="M15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>-180</v>
+      </c>
+      <c r="D16">
+        <v>-175</v>
+      </c>
+      <c r="E16">
+        <v>-170</v>
+      </c>
+      <c r="F16">
+        <v>-177</v>
+      </c>
+      <c r="G16">
+        <v>-166</v>
+      </c>
+      <c r="H16">
+        <v>-177</v>
+      </c>
+      <c r="I16">
+        <v>-170</v>
+      </c>
+      <c r="J16">
+        <v>-175</v>
+      </c>
+      <c r="M16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>145</v>
+      </c>
+      <c r="D17">
+        <v>145</v>
+      </c>
+      <c r="E17">
+        <v>145</v>
+      </c>
+      <c r="F17">
+        <v>140</v>
+      </c>
+      <c r="G17">
+        <v>140</v>
+      </c>
+      <c r="H17">
+        <v>140</v>
+      </c>
+      <c r="I17">
+        <v>140</v>
+      </c>
+      <c r="J17">
+        <v>140</v>
+      </c>
+      <c r="M17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>185</v>
+      </c>
+      <c r="D18">
+        <v>170</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>170</v>
+      </c>
+      <c r="G18">
+        <v>184</v>
+      </c>
+      <c r="H18">
+        <v>170</v>
+      </c>
+      <c r="I18">
+        <v>188</v>
+      </c>
+      <c r="J18">
+        <v>175</v>
+      </c>
+      <c r="M18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>-230</v>
+      </c>
+      <c r="D19">
+        <v>-210</v>
+      </c>
+      <c r="E19">
+        <v>-220</v>
+      </c>
+      <c r="F19">
+        <v>-215</v>
+      </c>
+      <c r="G19">
+        <v>-220</v>
+      </c>
+      <c r="H19">
+        <v>-215</v>
+      </c>
+      <c r="I19">
+        <v>-225</v>
+      </c>
+      <c r="J19">
+        <v>-225</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <v>205</v>
+      </c>
+      <c r="G20">
+        <v>235</v>
+      </c>
+      <c r="H20">
+        <v>205</v>
+      </c>
+      <c r="I20">
+        <v>225</v>
+      </c>
+      <c r="J20">
+        <v>190</v>
+      </c>
+      <c r="M20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>-285</v>
+      </c>
+      <c r="D21">
+        <v>-300</v>
+      </c>
+      <c r="E21">
+        <v>-280</v>
+      </c>
+      <c r="F21">
+        <v>-265</v>
+      </c>
+      <c r="G21">
+        <v>-290</v>
+      </c>
+      <c r="H21">
+        <v>-265</v>
+      </c>
+      <c r="I21">
+        <v>-275</v>
+      </c>
+      <c r="J21">
+        <v>-250</v>
+      </c>
+      <c r="M21">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>